--- a/results.xlsx
+++ b/results.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merca\Desktop\diadema_ajmc2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EB4718-04FB-41BA-AFFC-ADC5252E3A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EE67F-717A-40A8-8B21-9D7EEEEFA9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="2" xr2:uid="{A63E299C-D04E-45E4-B40C-A232108876F3}"/>
+    <workbookView xWindow="2628" yWindow="1146" windowWidth="17280" windowHeight="9102" activeTab="4" xr2:uid="{A63E299C-D04E-45E4-B40C-A232108876F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Description" sheetId="3" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Collection" sheetId="1" r:id="rId3"/>
+    <sheet name="FrequencyHistogram" sheetId="4" r:id="rId4"/>
+    <sheet name="Proportion" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="123">
   <si>
     <t>Municipality</t>
   </si>
@@ -62,9 +64,6 @@
     <t>Ceiba</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Culebra</t>
   </si>
   <si>
@@ -387,6 +386,27 @@
   </si>
   <si>
     <t>Rocky Reef within 50ft of shoreline, coral was present. Many boats coming in and out that caused a lot of debris (highly turbid waters). Low visibility (4 feet). Healthy Specimens.</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>1.5+2in</t>
+  </si>
+  <si>
+    <t>2.5+3in</t>
+  </si>
+  <si>
+    <t>3.5++</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1566,667 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FrequencyHistogram!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FrequencyHistogram!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5 in</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 in</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5 in</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 in</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5 in</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5 in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FrequencyHistogram!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A793-4A4C-9317-6D0F1C49D3E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="423330320"/>
+        <c:axId val="423330976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="423330320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423330976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423330976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423330320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Proportion!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Proportion!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Proportion!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-696E-42DE-888E-5DC5549BEB36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="414110424"/>
+        <c:axId val="414112064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="414110424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414112064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414112064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414110424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2091,6 +2771,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2112,6 +3798,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C5B4EC-1DC9-4F8B-9BD9-9966C2F0E2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2676CE1E-E6E2-4AA2-A429-B8D83FA466BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622935</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0182FF-32B8-4549-A6AA-7AC2F6C98BCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,13 +4229,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="237.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -2475,13 +4243,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2492,16 +4260,16 @@
     </row>
     <row r="4" spans="1:4" ht="405.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2512,16 +4280,16 @@
     </row>
     <row r="6" spans="1:4" ht="136.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2532,38 +4300,38 @@
     </row>
     <row r="8" spans="1:4" ht="352.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="254.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2574,16 +4342,16 @@
     </row>
     <row r="12" spans="1:4" ht="287.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2594,22 +4362,22 @@
     </row>
     <row r="14" spans="1:4" ht="117.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="67.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19"/>
       <c r="B15" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -2617,23 +4385,23 @@
     <row r="16" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="12"/>
       <c r="B16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="405.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2699,673 +4467,673 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>677</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>677</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>677</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>677</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>677</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>677</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>677</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>677</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>677</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>677</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>716</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>716</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>716</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
       </c>
       <c r="E15">
         <v>662</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
       </c>
       <c r="E16">
         <v>662</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
       </c>
       <c r="E17">
         <v>662</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
       <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
       </c>
       <c r="E18">
         <v>662</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
       </c>
       <c r="E19">
         <v>662</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>773</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>773</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>773</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>773</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>773</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>775</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>775</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>775</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>775</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>775</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>775</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>775</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>784</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>784</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -3374,18 +5142,18 @@
         <v>735</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -3394,18 +5162,18 @@
         <v>735</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -3414,18 +5182,18 @@
         <v>735</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -3434,18 +5202,18 @@
         <v>735</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -3454,18 +5222,18 @@
         <v>735</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -3474,18 +5242,18 @@
         <v>735</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -3494,18 +5262,18 @@
         <v>735</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -3514,18 +5282,18 @@
         <v>735</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -3534,67 +5302,67 @@
         <v>735</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43">
         <v>647</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44">
         <v>647</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45">
         <v>647</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3609,7 +5377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF494F-F1FA-4556-AFEA-3AB47A5A9B7D}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="B1:G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3639,10 +5409,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -3653,45 +5423,45 @@
       <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
+      <c r="D3" s="4">
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -3699,22 +5469,22 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
+      <c r="C5" s="4">
+        <v>0</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -3722,8 +5492,8 @@
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -3731,7 +5501,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -3742,19 +5512,19 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -3762,31 +5532,31 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
+      <c r="D7" s="4">
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>8</v>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
+      <c r="D8" s="4">
+        <v>0</v>
       </c>
       <c r="E8" s="4">
         <v>4</v>
@@ -3794,16 +5564,16 @@
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>8</v>
+      <c r="G8" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
+      <c r="B9" s="4">
+        <v>0</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -3814,11 +5584,11 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>8</v>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3826,4 +5596,196 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DCFCBA-7413-4702-9AA5-678252141642}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E6FBF-F068-46E2-93D6-F5F9E960854B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merca\Desktop\diadema_ajmc2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EE67F-717A-40A8-8B21-9D7EEEEFA9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4628C2-CD1B-40D4-BFF4-FEA2D2950B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="1146" windowWidth="17280" windowHeight="9102" activeTab="4" xr2:uid="{A63E299C-D04E-45E4-B40C-A232108876F3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="2" xr2:uid="{A63E299C-D04E-45E4-B40C-A232108876F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Description" sheetId="3" r:id="rId1"/>
@@ -633,19 +633,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,13 +657,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -694,90 +694,33 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sea Urchin</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Collected by Size &amp; Municipality in Puerto Rico</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Collection!$B$1</c:f>
+              <c:f>Collection!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.5 in</c:v>
+                  <c:v>Ceiba</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -787,64 +730,52 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Collection!$A$2:$A$9</c:f>
+              <c:f>Collection!$B$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Rincon</c:v>
+                  <c:v>1.5 in</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ponce</c:v>
+                  <c:v>2 in</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Luquillo</c:v>
+                  <c:v>2.5 in</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Isabela</c:v>
+                  <c:v>3 in</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Guayama</c:v>
+                  <c:v>3.5 in</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Guanica</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Culebra</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ceiba</c:v>
+                  <c:v>4.5 in</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Collection!$B$2:$B$9</c:f>
+              <c:f>Collection!$B$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -852,20 +783,442 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8A02-4314-A870-3606AE7C6F43}"/>
+              <c16:uniqueId val="{00000002-ECCA-4B2E-8260-5F8EAE42C9C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Collection!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Culebra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Collection!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5 in</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 in</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5 in</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 in</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5 in</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5 in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Collection!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECCA-4B2E-8260-5F8EAE42C9C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Collection!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Guanica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Collection!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5 in</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 in</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5 in</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 in</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5 in</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5 in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Collection!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8A02-4314-A870-3606AE7C6F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Collection!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Guayama</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Collection!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5 in</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 in</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5 in</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 in</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5 in</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5 in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Collection!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A02-4314-A870-3606AE7C6F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Collection!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isabela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Collection!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5 in</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 in</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5 in</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 in</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5 in</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5 in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Collection!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A02-4314-A870-3606AE7C6F43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Collection!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Luquillo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Collection!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5 in</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 in</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5 in</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 in</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5 in</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5 in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Collection!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A02-4314-A870-3606AE7C6F43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Collection!$C$1</c:f>
+              <c:f>Collection!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 in</c:v>
+                  <c:v>Ponce</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -882,44 +1235,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Collection!$A$2:$A$9</c:f>
+              <c:f>Collection!$B$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Rincon</c:v>
+                  <c:v>1.5 in</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ponce</c:v>
+                  <c:v>2 in</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Luquillo</c:v>
+                  <c:v>2.5 in</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Isabela</c:v>
+                  <c:v>3 in</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Guayama</c:v>
+                  <c:v>3.5 in</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Guanica</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Culebra</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ceiba</c:v>
+                  <c:v>4.5 in</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Collection!$C$2:$C$9</c:f>
+              <c:f>Collection!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -928,19 +1275,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,22 +1293,24 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="5"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Collection!$D$1</c:f>
+              <c:f>Collection!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5 in</c:v>
+                  <c:v>Rincon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -977,357 +1320,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Collection!$A$2:$A$9</c:f>
+              <c:f>Collection!$B$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Rincon</c:v>
+                  <c:v>1.5 in</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ponce</c:v>
+                  <c:v>2 in</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Luquillo</c:v>
+                  <c:v>2.5 in</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Isabela</c:v>
+                  <c:v>3 in</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Guayama</c:v>
+                  <c:v>3.5 in</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Guanica</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Culebra</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ceiba</c:v>
+                  <c:v>4.5 in</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Collection!$D$2:$D$9</c:f>
+              <c:f>Collection!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8A02-4314-A870-3606AE7C6F43}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Collection!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3 in</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Collection!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Rincon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ponce</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Luquillo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Isabela</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Guayama</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Guanica</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Culebra</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ceiba</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Collection!$E$2:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8A02-4314-A870-3606AE7C6F43}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Collection!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.5 in</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Collection!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Rincon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ponce</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Luquillo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Isabela</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Guayama</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Guanica</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Culebra</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ceiba</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Collection!$F$2:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8A02-4314-A870-3606AE7C6F43}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Collection!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.5 in</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Collection!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Rincon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ponce</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Luquillo</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Isabela</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Guayama</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Guanica</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Culebra</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ceiba</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Collection!$G$2:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8A02-4314-A870-3606AE7C6F43}"/>
+              <c16:uniqueId val="{00000006-8A02-4314-A870-3606AE7C6F43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1340,7 +1386,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
         <c:axId val="473471760"/>
         <c:axId val="473466184"/>
       </c:barChart>
@@ -1350,7 +1395,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1401,7 +1446,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1432,7 +1477,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1474,7 +1519,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1492,7 +1537,7 @@
       </c:dTable>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -2147,13 +2192,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3781,16 +3823,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203836</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>46672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4239,186 +4281,194 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="237.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="405.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="136.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="352.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="254.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" ht="287.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="117.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="67.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="19"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="405.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -4427,21 +4477,13 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5377,8 +5419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF494F-F1FA-4556-AFEA-3AB47A5A9B7D}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="B1:G9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5737,7 +5779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E6FBF-F068-46E2-93D6-F5F9E960854B}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
